--- a/public/template-excel/anggota-template.xlsx
+++ b/public/template-excel/anggota-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBL\Project\webserver\project\simpin\public\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF13FB7-9EC5-48E7-94B3-B7A12B936548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C949A-D51B-4784-886F-DB14DAF0E322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FC7BBF7-155F-4988-B128-9EADF18D6A3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id_jenis_anggota</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>arya@gmail.com</t>
+  </si>
+  <si>
+    <t>kode_anggota</t>
+  </si>
+  <si>
+    <t>kode_tabungan</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>aktif</t>
   </si>
 </sst>
 </file>
@@ -457,115 +469,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8934C-A06E-412C-A992-93ACDD6A7C09}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>456</v>
+      </c>
+      <c r="B2">
+        <v>456</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>35609</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3">
         <v>43175</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="L2">
-        <v>88880088</v>
       </c>
       <c r="N2">
         <v>88880088</v>
+      </c>
+      <c r="P2">
+        <v>88880088</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{AAE58E5B-553F-4207-97E2-3BB5C1714E38}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{AAE58E5B-553F-4207-97E2-3BB5C1714E38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template-excel/anggota-template.xlsx
+++ b/public/template-excel/anggota-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBL\Project\webserver\project\simpin\public\template-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C949A-D51B-4784-886F-DB14DAF0E322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764AD6BF-F1AC-4ACE-8929-744D821CF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FC7BBF7-155F-4988-B128-9EADF18D6A3D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FC7BBF7-155F-4988-B128-9EADF18D6A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>id_jenis_anggota</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>nipp</t>
   </si>
@@ -51,9 +48,6 @@
     <t>ktp</t>
   </si>
   <si>
-    <t>lokasi_kerja</t>
-  </si>
-  <si>
     <t>tgl_masuk</t>
   </si>
   <si>
@@ -97,6 +91,24 @@
   </si>
   <si>
     <t>aktif</t>
+  </si>
+  <si>
+    <t>jenis_anggota</t>
+  </si>
+  <si>
+    <t>BIASA</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>KOPEGMAR</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>Kelas 1</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8934C-A06E-412C-A992-93ACDD6A7C09}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,116 +500,126 @@
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>456</v>
       </c>
       <c r="B2">
         <v>456</v>
       </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>35609</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3">
         <v>43175</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2">
+      <c r="N2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2">
         <v>88880088</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>88880088</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
+      <c r="R2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{AAE58E5B-553F-4207-97E2-3BB5C1714E38}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{AAE58E5B-553F-4207-97E2-3BB5C1714E38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
